--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ МСЗ ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-56-49).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ МСЗ ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-56-49).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +485,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.2993672626579805E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>2.0690722199270801E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>4.3684394825850606E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.4108395718637303E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>5.437421055888419E-5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>1.3848260627752151E-4</v>
       </c>
     </row>
@@ -507,22 +508,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2.584405296711586E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>3.0215840469640388E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>5.6059893436756245E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.1108952171561607E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>9.0405394067118156E-5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.0149491578273424E-4</v>
       </c>
     </row>
@@ -530,22 +531,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.7116096802231296E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>4.1735282583378741E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>6.885137938561004E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1.1277400995385851E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.4441654108496231E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.5719055103882082E-4</v>
       </c>
     </row>
@@ -553,22 +554,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.7774465603420021E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4.0362804419221383E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>6.8137270022641401E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1.0528444916842267E-4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.4393010483384529E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.4921455400226799E-4</v>
       </c>
     </row>
@@ -576,22 +577,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.2917394184804658E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>4.1389970123442129E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>6.4307364308246784E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>8.6950979926817709E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.4838966373042136E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.3534064365723906E-4</v>
       </c>
     </row>
@@ -599,22 +600,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.6140546427255404E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3.6439362532338237E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>5.2579908959593641E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>6.3153956322777109E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.4697771832069723E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.1013167464347434E-4</v>
       </c>
     </row>
@@ -622,22 +623,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.1326605219146131E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>3.3267282502858304E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>4.4593887722004438E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>4.5807121238975209E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.3681091563156765E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>1.8261803687054287E-4</v>
       </c>
     </row>
@@ -645,22 +646,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>8.0280633726298011E-6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>2.7458817062505551E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>3.5486880435135353E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>3.4674468391755009E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>7.7524045061720792E-5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.1219851345347579E-4</v>
       </c>
     </row>
@@ -668,22 +669,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>4.8309385345815991E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>1.8154401659909464E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>2.2985340194491065E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1.3562738633693297E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>4.1856199026605757E-5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>5.5418937660299052E-5</v>
       </c>
     </row>
@@ -691,22 +692,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.7179487430496469E-6</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>1.7179487430496469E-6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>9.388869381631131E-7</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>9.388869381631131E-7</v>
       </c>
     </row>
@@ -714,22 +715,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -737,22 +738,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>1.9239999999999999E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>3.4940000000000001E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>5.418E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>7.6139999999999999E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.2511999999999999E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>2.0126000000000001E-4</v>
       </c>
     </row>
@@ -762,10 +763,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -796,22 +799,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>3.1134553857050755E-5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4">
+        <v>3.1134553857050802E-5</v>
+      </c>
+      <c r="C2" s="4">
         <v>2.9807110244613735E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>6.0941664101664487E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.005815565632935E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>4.9498118494641622E-5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>1.2955627415097099E-4</v>
       </c>
     </row>
@@ -819,22 +822,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1.3261917627239765E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>3.3890916432840424E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>4.7152834060080189E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>3.7560618129427004E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>9.5192993378032643E-5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1.3275361150745965E-4</v>
       </c>
     </row>
@@ -842,22 +845,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1.9050357636728672E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>6.1696171431475108E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>8.0746529068203773E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>7.9242197696015331E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.5713608558885536E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.3637828328487069E-4</v>
       </c>
     </row>
@@ -865,22 +868,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1.096587367921248E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4.0429831989014014E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>5.1395705668226495E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>5.3763735686754599E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.1327087407556132E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>1.6703460976231593E-4</v>
       </c>
     </row>
@@ -888,22 +891,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>1.5195702975953137E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>5.6941742257811986E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>7.2137445233765116E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>5.622799540439601E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.8216153277931789E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.383895281837139E-4</v>
       </c>
     </row>
@@ -911,22 +914,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.1210143810351818E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>4.8181835112701971E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>5.9391978923053791E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>5.0917297073317667E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.3295498452667109E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1.8387228159998876E-4</v>
       </c>
     </row>
@@ -934,22 +937,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.0304364463912395E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>5.0811698716949613E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>6.1116063180862007E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>4.2203210027343935E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.7170007356888766E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2.1390328359623161E-4</v>
       </c>
     </row>
@@ -957,22 +960,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.5701807017339864E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>4.1063472561156455E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>5.6765279578496316E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>5.5181032402975708E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>9.9630360166664959E-5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.5481139256964067E-4</v>
       </c>
     </row>
@@ -980,22 +983,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9.7047976469188782E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>4.0452911372997013E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>5.0157709019915893E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1.1024243175150792E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>3.9863168676964927E-5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>5.0887411852115721E-5</v>
       </c>
     </row>
@@ -1003,22 +1006,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1026,22 +1029,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1049,22 +1052,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>1.2850000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>4.8989999999999997E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>6.1840000000000004E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>5.1610000000000002E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.4594E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>1.9755E-4</v>
       </c>
     </row>
